--- a/teaching/traditional_assets/database/data/norway/norway_hotel_gaming.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_hotel_gaming.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-0.694</v>
+        <v>0.477</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -621,61 +621,61 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.2478571428571429</v>
+        <v>0.06317880794701987</v>
       </c>
       <c r="X2">
-        <v>0.09190012502147483</v>
+        <v>0.09773871403333599</v>
       </c>
       <c r="Y2">
-        <v>-0.3397572678786177</v>
+        <v>-0.03455990608631612</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.03245823389021479</v>
+        <v>-0.02417302798982188</v>
       </c>
       <c r="AB2">
-        <v>0.05630423828771351</v>
+        <v>0.05250516805913231</v>
       </c>
       <c r="AC2">
-        <v>-0.08876247217792831</v>
+        <v>-0.07667819604895421</v>
       </c>
       <c r="AD2">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AG2">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.5717284814555633</v>
+        <v>0.6083513318934485</v>
       </c>
       <c r="AI2">
-        <v>0.4306800210859252</v>
+        <v>0.3957845433255269</v>
       </c>
       <c r="AJ2">
-        <v>0.5717284814555633</v>
+        <v>0.6083513318934485</v>
       </c>
       <c r="AK2">
-        <v>0.4306800210859252</v>
+        <v>0.3957845433255269</v>
       </c>
       <c r="AL2">
         <v>0.52</v>
       </c>
       <c r="AM2">
-        <v>0.52</v>
+        <v>0.519</v>
       </c>
       <c r="AO2">
-        <v>-0.7846153846153845</v>
+        <v>-0.7307692307692307</v>
       </c>
       <c r="AQ2">
-        <v>-0.7846153846153845</v>
+        <v>-0.7321772639691715</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Black Sea Property AS (OB:BSP-ME)</t>
+          <t>Black Sea Property AS (OB:BSP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.694</v>
+        <v>0.477</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -704,7 +704,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -713,7 +713,7 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -725,61 +725,61 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.2478571428571429</v>
+        <v>0.06317880794701987</v>
       </c>
       <c r="X3">
-        <v>0.09190012502147483</v>
+        <v>0.09773871403333599</v>
       </c>
       <c r="Y3">
-        <v>-0.3397572678786177</v>
+        <v>-0.03455990608631612</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.03245823389021479</v>
+        <v>-0.02417302798982188</v>
       </c>
       <c r="AB3">
-        <v>0.05630423828771351</v>
+        <v>0.05250516805913231</v>
       </c>
       <c r="AC3">
-        <v>-0.08876247217792831</v>
+        <v>-0.07667819604895421</v>
       </c>
       <c r="AD3">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AG3">
-        <v>8.17</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.5717284814555633</v>
+        <v>0.6083513318934485</v>
       </c>
       <c r="AI3">
-        <v>0.4306800210859252</v>
+        <v>0.3957845433255269</v>
       </c>
       <c r="AJ3">
-        <v>0.5717284814555633</v>
+        <v>0.6083513318934485</v>
       </c>
       <c r="AK3">
-        <v>0.4306800210859252</v>
+        <v>0.3957845433255269</v>
       </c>
       <c r="AL3">
         <v>0.52</v>
       </c>
       <c r="AM3">
-        <v>0.52</v>
+        <v>0.519</v>
       </c>
       <c r="AO3">
-        <v>-0.7846153846153845</v>
+        <v>-0.7307692307692307</v>
       </c>
       <c r="AQ3">
-        <v>-0.7846153846153845</v>
+        <v>-0.7321772639691715</v>
       </c>
     </row>
   </sheetData>
